--- a/src/test/resources/TestData/task_sample.xlsx
+++ b/src/test/resources/TestData/task_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newautomations\testng-automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566E5D0-30D6-4FBE-9C59-5FDC54EF98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA358D-F6A0-451D-88AC-207F2E3938F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17496" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="32">
   <si>
     <t>Service_engineer_number</t>
   </si>
@@ -52,40 +52,70 @@
     <t>Srinivas</t>
   </si>
   <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>2023/04/05</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>Sainath</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>9085868098</t>
+  </si>
+  <si>
+    <t>2023/04/08</t>
+  </si>
+  <si>
+    <t>2023/03/31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Sai New User</t>
+  </si>
+  <si>
     <t>8888591959</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>2023/04/04</t>
-  </si>
-  <si>
-    <t>Sainathsds</t>
-  </si>
-  <si>
-    <t>Sainath</t>
+    <t>2023/04/12</t>
+  </si>
+  <si>
+    <t>8790873484</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Sai-test</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Priya test account</t>
+  </si>
+  <si>
+    <t>M-111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8142453798</t>
+  </si>
+  <si>
+    <t>Priya</t>
   </si>
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>Mtestaccount</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Testbot</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>8790873484</t>
   </si>
 </sst>
 </file>
@@ -467,7 +497,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -506,7 +536,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -515,22 +545,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B2:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/task_sample.xlsx
+++ b/src/test/resources/TestData/task_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="51">
   <si>
     <t>Service_engineer_number</t>
   </si>
@@ -116,6 +116,63 @@
   </si>
   <si>
     <t>Df</t>
+  </si>
+  <si>
+    <t>2023/04/19</t>
+  </si>
+  <si>
+    <t>Mtestaccount</t>
+  </si>
+  <si>
+    <t>2023/04/11</t>
+  </si>
+  <si>
+    <t>Testbot</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2023/04/20</t>
+  </si>
+  <si>
+    <t>Test Task03:55:53</t>
+  </si>
+  <si>
+    <t>Test Task05:58:23</t>
+  </si>
+  <si>
+    <t>Test Task05:58:56</t>
+  </si>
+  <si>
+    <t>Test Task05:59:27</t>
+  </si>
+  <si>
+    <t>Test Task06:00:51</t>
+  </si>
+  <si>
+    <t>Test Task06:01:23</t>
+  </si>
+  <si>
+    <t>Test Task06:05:19</t>
+  </si>
+  <si>
+    <t>Test Task06:05:50</t>
+  </si>
+  <si>
+    <t>Test Task06:06:22</t>
+  </si>
+  <si>
+    <t>Test Task06:06:53</t>
+  </si>
+  <si>
+    <t>Test Task06:07:24</t>
+  </si>
+  <si>
+    <t>Test Task06:13:50</t>
+  </si>
+  <si>
+    <t>Test Task06:26:09</t>
   </si>
 </sst>
 </file>
@@ -536,10 +593,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -548,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
